--- a/tl/P01210.MES.BIN.xlsx
+++ b/tl/P01210.MES.BIN.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF36BD0-3800-40E5-9850-E4FB4373FDBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575C00FB-B8E8-4DC5-96B9-C268406FBDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="16125" windowWidth="54585" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="54585" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="P01210.MES.BIN" sheetId="1" r:id="rId1"/>
@@ -685,9 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
